--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1710.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2866953012875282</v>
+        <v>0.7943037748336792</v>
       </c>
       <c r="B1">
-        <v>1.124140897921857</v>
+        <v>2.093758821487427</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.532722808066113</v>
+        <v>1.250910758972168</v>
       </c>
       <c r="E1">
-        <v>1.71002678341131</v>
+        <v>0.5209749937057495</v>
       </c>
     </row>
   </sheetData>
